--- a/biology/Zoologie/Dromiidae/Dromiidae.xlsx
+++ b/biology/Zoologie/Dromiidae/Dromiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dromiidae sont une famille de crabes, du groupe des Dromioidea. Elle comprend près de 130 espèces actuelles et près de 30 fossiles réparties dans 47 genres dont six fossiles.
 Plusieurs espèces cultivent des éponges toxiques sur leur dos pour se camoufler et se protéger des prédateurs. 
@@ -512,9 +524,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 juin 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 juin 2017) :
 sous-famille Dromiinae De Haan, 1833
 genre Alainodromia McLay, 1998
 genre Ascidiophilus Richters, 1880
@@ -598,7 +612,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>de Haan, 1833 : Crustacea. Fauna Japonica sive Descriptio Animalium, Quae in Itinere per Japoniam, Jussu et Auspiciis Superiorum, qui Summum in India Batava Imperium Tenent, Suscepto, Annis 1823–1830 Collegit, Noitis, Observationibus et Adumbrationibus Illustravit. Leiden, Lugduni-Batavorum.  p. 1–243.</t>
         </is>
@@ -628,7 +644,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17 p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
